--- a/4.Clustering/Association Rule Mining.xlsx
+++ b/4.Clustering/Association Rule Mining.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/DSB8/4.Clustering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/Data-Science-9/4.Clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BCD299-00E0-7D43-A3B7-41088C32739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92A4716-D2EA-AE4C-87CC-16DF8943CBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{6D37045A-0E77-1E40-AD19-A0BCD345EF70}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{6D37045A-0E77-1E40-AD19-A0BCD345EF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Bread</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>2. Apriori Rule / Algorithm</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>in future likelihood of I2 increases when I1 is bought</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>its likely being caused by chance in historical data</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -254,13 +272,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -585,7 +602,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,10 +622,10 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="10">
         <v>0.6</v>
       </c>
     </row>
@@ -616,17 +633,16 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2">
         <v>1</v>
       </c>
@@ -635,19 +651,19 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="G3">
         <v>1</v>
       </c>
@@ -656,19 +672,19 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G4">
@@ -679,19 +695,19 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G5">
@@ -699,22 +715,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G6">
@@ -725,7 +741,7 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f>SUM(G2:G6)</f>
         <v>5</v>
       </c>
@@ -739,16 +755,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
@@ -867,7 +883,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -877,14 +893,23 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -907,8 +932,14 @@
         <f>E19/C11</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -928,7 +959,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -948,7 +979,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -962,7 +993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -981,9 +1012,8 @@
         <f>B24/B19</f>
         <v>1</v>
       </c>
-      <c r="F24">
-        <f>E24/C12</f>
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
